--- a/src/excel/evogene-jira-analist/yearly-company-budget.xlsx
+++ b/src/excel/evogene-jira-analist/yearly-company-budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\src\excel\evogene-jira-analist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B924DD9-09A7-4D28-BABA-40EF0D99D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E79C21-5A54-43EB-9982-3938F1A44869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +392,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -530,14 +531,14 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>23.64</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>19.68</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
